--- a/output/province_web_data/青海省_学习考察.xlsx
+++ b/output/province_web_data/青海省_学习考察.xlsx
@@ -436,14 +436,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
@@ -466,10 +466,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>29</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -498,10 +496,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>29</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -530,10 +526,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>29</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -562,10 +556,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>29</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -594,10 +586,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>29</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -626,10 +616,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>29</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -658,10 +646,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>29</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -690,10 +676,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>29</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -722,10 +706,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>29</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -754,10 +736,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>29</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -786,10 +766,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>29</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -818,10 +796,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>29</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -850,10 +826,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>29</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -882,10 +856,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>29</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -914,10 +886,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>29</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -946,10 +916,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>29</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -978,10 +946,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>29</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1010,10 +976,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>29</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1042,10 +1006,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>29</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1074,10 +1036,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>29</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1106,10 +1066,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>29</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1138,10 +1096,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>29</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1170,10 +1126,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>29</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1202,10 +1156,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>29</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1234,10 +1186,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>29</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1266,10 +1216,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>29</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1298,10 +1246,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>29</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1330,10 +1276,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>29</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1362,10 +1306,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1394,10 +1336,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1426,10 +1366,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>29</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1458,10 +1396,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>29</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1490,10 +1426,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>29</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1522,10 +1456,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>29</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1554,10 +1486,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>29</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1586,10 +1516,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>29</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1618,10 +1546,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>29</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1650,10 +1576,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>29</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1682,10 +1606,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>29</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1714,10 +1636,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>29</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1746,10 +1666,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>29</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1778,10 +1696,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>29</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1810,10 +1726,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>29</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1842,10 +1756,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>29</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1874,10 +1786,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>29</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1906,10 +1816,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>29</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1938,10 +1846,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>29</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1970,10 +1876,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>29</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2002,10 +1906,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>29</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2034,10 +1936,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>29</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2066,10 +1966,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>29</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2098,10 +1996,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>29</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2130,10 +2026,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>29</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2162,10 +2056,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>29</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2194,10 +2086,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>29</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2226,10 +2116,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>29</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2258,10 +2146,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>29</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2290,10 +2176,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>29</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2322,10 +2206,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>29</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2354,10 +2236,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>29</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2386,10 +2266,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>29</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2418,10 +2296,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>29</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2450,10 +2326,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>29</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2482,10 +2356,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>29</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2514,10 +2386,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>29</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2546,10 +2416,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>29</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2578,10 +2446,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>29</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2610,10 +2476,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>29</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2642,10 +2506,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>29</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2674,10 +2536,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>29</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2706,10 +2566,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>29</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2738,10 +2596,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>29</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2770,10 +2626,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>29</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2802,10 +2656,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>29</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2834,10 +2686,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>29</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2866,10 +2716,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>29</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2898,10 +2746,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>29</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2930,10 +2776,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>29</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2962,10 +2806,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>29</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2994,10 +2836,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>29</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3026,10 +2866,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>29</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3058,10 +2896,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>29</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3090,10 +2926,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>29</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3122,10 +2956,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>29</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3154,10 +2986,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>29</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3186,10 +3016,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>29</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3218,10 +3046,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>29</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3250,10 +3076,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>29</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3282,10 +3106,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>29</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3314,10 +3136,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>29</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3346,10 +3166,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>29</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3378,10 +3196,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>29</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3410,10 +3226,8 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>29</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3442,10 +3256,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>29</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3474,10 +3286,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>29</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3506,10 +3316,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>29</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3538,10 +3346,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>29</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3570,10 +3376,8 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>29</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3602,10 +3406,8 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>29</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3634,10 +3436,8 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>29</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3666,10 +3466,8 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>29</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3698,10 +3496,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>29</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3730,10 +3526,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>29</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3762,10 +3556,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>29</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3794,10 +3586,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>29</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
